--- a/forms/app/postnatal_followup.xlsx
+++ b/forms/app/postnatal_followup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="561">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -354,6 +354,48 @@
     <t xml:space="preserve">${t_child_alive}</t>
   </si>
   <si>
+    <t xml:space="preserve">reschedule_task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reschedule follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reprogrammer ce suivi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one yes_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_woman_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the woman available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La femme est-elle disponible?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_date_to_reschedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For what day do you want to reprogram the task?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour quel jour voulez-vous reprogrammer la tâche?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${is_woman_available} = ‘no’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">. &gt; today()</t>
+  </si>
+  <si>
     <t xml:space="preserve">task_to_perfom</t>
   </si>
   <si>
@@ -363,6 +405,9 @@
     <t xml:space="preserve">TÂCHE À EFFECTUER</t>
   </si>
   <si>
+    <t xml:space="preserve">${is_woman_available} = 'yes'</t>
+  </si>
+  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
@@ -387,9 +432,6 @@
     <t xml:space="preserve">Quelle tâche voulez-vous effectuer?</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
-  </si>
-  <si>
     <t xml:space="preserve">g_close_out</t>
   </si>
   <si>
@@ -399,7 +441,7 @@
     <t xml:space="preserve">CLÔTURE</t>
   </si>
   <si>
-    <t xml:space="preserve">${which_task_to_perfom} = 'close_out'</t>
+    <t xml:space="preserve">${which_task_to_perfom} = 'close_out' and ${is_woman_available} = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">field-list </t>
@@ -441,7 +483,7 @@
     <t xml:space="preserve">SIGNES DE DANGER CHEZ LA MAMAN</t>
   </si>
   <si>
-    <t xml:space="preserve">${which_task_to_perfom} = 'follow_up'</t>
+    <t xml:space="preserve">${which_task_to_perfom} = 'follow_up' and ${is_woman_available} = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">n_confirm_danger_signs_mother</t>
@@ -453,9 +495,6 @@
     <t xml:space="preserve">Vérifier si la femme présente un ou plusieurs de ces signes de danger</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one yes_no</t>
-  </si>
-  <si>
     <t xml:space="preserve">non_stop_bleeding</t>
   </si>
   <si>
@@ -549,7 +588,7 @@
     <t xml:space="preserve">CONSEILS SUR LES SIGNES DE DANGER CHEZ LA MAMAN</t>
   </si>
   <si>
-    <t xml:space="preserve">${which_task_to_perfom} = 'follow_up' and ${danger_sign_mother_continue_follow_up} = 'yes'</t>
+    <t xml:space="preserve">${which_task_to_perfom} = 'follow_up' and ${danger_sign_mother_continue_follow_up} = 'yes' and ${is_woman_available} = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">field-list summary</t>
@@ -729,7 +768,7 @@
     <t xml:space="preserve">CONSEILS SIGNES DE DANGER CHEZ LE NOUVEAU-NÉ</t>
   </si>
   <si>
-    <t xml:space="preserve">${which_task_to_perfom} = 'follow_up' and ${danger_signs_newborn_continue_follow_up} = 'yes'</t>
+    <t xml:space="preserve">${which_task_to_perfom} = 'follow_up' and ${danger_signs_newborn_continue_follow_up} = 'yes' and ${is_woman_available} = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">n_danger_signs_newborn_advices_1</t>
@@ -807,7 +846,7 @@
     <t xml:space="preserve">CPC NOUVEAU - NÉ</t>
   </si>
   <si>
-    <t xml:space="preserve">(${danger_sign_mother_continue_follow_up} = 'yes' or ${danger_sign_mother_continue_follow_up} = '') and (${danger_signs_newborn_continue_follow_up} = 'yes' or ${danger_signs_newborn_continue_follow_up} = '') and ${which_task_to_perfom} = 'follow_up' and ${follow_up_count} &gt; 1</t>
+    <t xml:space="preserve">(${danger_sign_mother_continue_follow_up} = 'yes' or ${danger_sign_mother_continue_follow_up} = '') and (${danger_signs_newborn_continue_follow_up} = 'yes' or ${danger_signs_newborn_continue_follow_up} = '') and ${which_task_to_perfom} = 'follow_up' and ${follow_up_count} &gt; 1 and ${is_woman_available} = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">newborn_take_first_cpc</t>
@@ -828,7 +867,7 @@
     <t xml:space="preserve">AUTRES CONSEILS</t>
   </si>
   <si>
-    <t xml:space="preserve">(${danger_sign_mother_continue_follow_up} = 'yes' or ${danger_sign_mother_continue_follow_up} = '') and ${which_task_to_perfom} = 'follow_up' and (${danger_signs_newborn_continue_follow_up} = 'yes' or ${danger_signs_newborn_continue_follow_up} = '')</t>
+    <t xml:space="preserve">(${danger_sign_mother_continue_follow_up} = 'yes' or ${danger_sign_mother_continue_follow_up} = '') and ${which_task_to_perfom} = 'follow_up' and (${danger_signs_newborn_continue_follow_up} = 'yes' or ${danger_signs_newborn_continue_follow_up} = '') and ${is_woman_available} = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">n_other_tips_1</t>
@@ -894,7 +933,7 @@
     <t xml:space="preserve">VISITE DE SUIVI A L'USP</t>
   </si>
   <si>
-    <t xml:space="preserve">${follow_up_count} &lt;= 3 and ${close_out} = 'false' and (${danger_sign_mother_continue_follow_up} = 'yes' or ${danger_sign_mother_continue_follow_up} = '') and (${danger_signs_newborn_continue_follow_up} = 'yes' or ${danger_signs_newborn_continue_follow_up} = '')</t>
+    <t xml:space="preserve">${follow_up_count} &lt;= 3 and ${close_out} = 'false' and (${danger_sign_mother_continue_follow_up} = 'yes' or ${danger_sign_mother_continue_follow_up} = '') and (${danger_signs_newborn_continue_follow_up} = 'yes' or ${danger_signs_newborn_continue_follow_up} = '') and ${is_woman_available} = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">did_go_to_1st_visit</t>
@@ -960,9 +999,6 @@
     <t xml:space="preserve">${why_not_go_2nd_visit} = 'other'</t>
   </si>
   <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
     <t xml:space="preserve">date_next_visit_mother_newborn</t>
   </si>
   <si>
@@ -993,7 +1029,7 @@
     <t xml:space="preserve">COUNSELLING SUR LA PF</t>
   </si>
   <si>
-    <t xml:space="preserve">${follow_up_count} = 3 and (${danger_sign_mother_continue_follow_up} = 'yes' or ${danger_sign_mother_continue_follow_up} = '') and (${danger_signs_newborn_continue_follow_up} = 'yes' or ${danger_signs_newborn_continue_follow_up} = '')</t>
+    <t xml:space="preserve">${follow_up_count} = 3 and (${danger_sign_mother_continue_follow_up} = 'yes' or ${danger_sign_mother_continue_follow_up} = '') and (${danger_signs_newborn_continue_follow_up} = 'yes' or ${danger_signs_newborn_continue_follow_up} = '') and ${is_woman_available} = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">woman_wants_fp</t>
@@ -1086,7 +1122,7 @@
     <t xml:space="preserve">r_signs</t>
   </si>
   <si>
-    <t xml:space="preserve">${close_out} = 'false'</t>
+    <t xml:space="preserve">${close_out} = 'false' and ${is_woman_available} = 'yes'</t>
   </si>
   <si>
     <t xml:space="preserve">r_signs_symptoms</t>
@@ -1364,7 +1400,22 @@
     <t xml:space="preserve">Prochaine visite par l'ASC &lt;i class="fa fa-flag"&gt;&lt;/i&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">${close_out} = 'false'</t>
+  </si>
+  <si>
     <t xml:space="preserve">h1 green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summary_reschedule_follow_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow up reschedule to: ${s_date_to_reschedule}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suivi reprogrammé au: ${s_date_to_reschedule}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${is_woman_available} =  'no'  and ${s_date_to_reschedule} != ''</t>
   </si>
   <si>
     <t xml:space="preserve">summary_referral_follow_up</t>
@@ -1667,7 +1718,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1733,6 +1784,32 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFC27BA0"/>
       <name val="Arial"/>
@@ -1781,12 +1858,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1797,7 +1880,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF9000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -1808,18 +1897,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF9000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1842,8 +1925,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1867,25 +1965,28 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1905,43 +2006,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1949,39 +2090,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1989,23 +2130,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2018,13 +2163,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
   <dxfs count="57">
     <dxf>
@@ -2582,12 +2728,12 @@
       <rgbColor rgb="FF980000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFBF9000"/>
+      <rgbColor rgb="FF9C6500"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB7B7B7"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFE7E6E6"/>
       <rgbColor rgb="FF833C0C"/>
       <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFCFE2F3"/>
@@ -2597,7 +2743,7 @@
       <rgbColor rgb="FFD9D2E9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFCE5CD"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2606,7 +2752,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFD9EAD3"/>
-      <rgbColor rgb="FFFCE5CD"/>
+      <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FFB7E1CD"/>
       <rgbColor rgb="FFD0CECE"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -2616,7 +2762,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFBF9000"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF76A5AF"/>
       <rgbColor rgb="FF003366"/>
@@ -2639,15 +2785,15 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="A105" activeCellId="0" sqref="A105"/>
+      <selection pane="bottomRight" activeCell="F125" activeCellId="0" sqref="F125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.09"/>
@@ -3626,129 +3772,102 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+    <row r="35" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="I35" s="0"/>
+    </row>
+    <row r="36" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
+      <c r="D36" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="E36" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="I36" s="0"/>
+    </row>
+    <row r="37" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="F37" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+    </row>
+    <row r="38" s="22" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>122</v>
+      <c r="B39" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>126</v>
+      <c r="F39" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -3757,27 +3876,25 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
+      <c r="O39" s="24"/>
       <c r="P39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="3"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -3785,29 +3902,29 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
+      <c r="O40" s="24"/>
       <c r="P40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="B41" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -3819,15 +3936,15 @@
       <c r="P41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3839,13 +3956,25 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="3"/>
+      <c r="F43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -3857,25 +3986,23 @@
       <c r="P43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>136</v>
+      <c r="A44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -3886,21 +4013,25 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -3912,26 +4043,16 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>45</v>
-      </c>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -3942,26 +4063,14 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>45</v>
-      </c>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G47" s="3"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -3972,25 +4081,25 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="G48" s="4" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -4004,24 +4113,20 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="D49" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -4034,23 +4139,23 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>156</v>
+        <v>113</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -4064,23 +4169,23 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>159</v>
+        <v>113</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -4094,23 +4199,23 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>164</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -4124,23 +4229,23 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>167</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -4154,25 +4259,23 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -4184,118 +4287,138 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="14"/>
+        <v>113</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="14"/>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="14"/>
+        <v>113</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
       <c r="P57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A58" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="14"/>
+      <c r="B58" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>182</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="15" t="s">
-        <v>183</v>
-      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -4303,27 +4426,17 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="14"/>
+      <c r="O59" s="24"/>
       <c r="P59" s="4"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>186</v>
-      </c>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="15" t="s">
-        <v>183</v>
-      </c>
+      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -4331,143 +4444,143 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="14"/>
+      <c r="O60" s="24"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="F61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="24"/>
       <c r="P61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="24"/>
       <c r="P62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="24"/>
       <c r="P63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="24"/>
       <c r="P64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="D65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="3"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="15" t="s">
-        <v>183</v>
+      <c r="G65" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
+      <c r="K65" s="3"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -4476,26 +4589,26 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>164</v>
+        <v>201</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="15" t="s">
-        <v>183</v>
+      <c r="G66" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
+      <c r="K66" s="3"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -4504,60 +4617,78 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>167</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="9" t="s">
-        <v>183</v>
+      <c r="G67" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
+      <c r="K67" s="3"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="G68" s="25" t="s">
+        <v>196</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
+      <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="G69" s="25" t="s">
+        <v>196</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -4568,25 +4699,23 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="25" t="s">
         <v>196</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -4598,22 +4727,24 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>199</v>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="G71" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -4624,26 +4755,16 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -4654,26 +4775,14 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A73" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>45</v>
-      </c>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -4684,25 +4793,25 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="G74" s="4" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -4716,24 +4825,20 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -4746,23 +4851,23 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>216</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -4776,23 +4881,23 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -4806,23 +4911,23 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -4836,23 +4941,23 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
@@ -4866,23 +4971,23 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C80" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="C80" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="D80" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -4896,25 +5001,23 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -4926,16 +5029,26 @@
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -4946,14 +5059,26 @@
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -4964,25 +5089,25 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>176</v>
+        <v>240</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -4999,17 +5124,23 @@
         <v>113</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="9"/>
+        <v>241</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -5020,24 +5151,16 @@
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>182</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -5048,24 +5171,14 @@
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A87" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>240</v>
-      </c>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -5076,23 +5189,25 @@
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
+      <c r="F88" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="G88" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -5106,22 +5221,20 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="G89" s="9"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -5134,21 +5247,21 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -5162,21 +5275,21 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -5190,21 +5303,21 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -5218,21 +5331,21 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="E93" s="4"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="4"/>
       <c r="G93" s="9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -5246,21 +5359,21 @@
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -5274,21 +5387,21 @@
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -5300,16 +5413,24 @@
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="G96" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -5320,14 +5441,24 @@
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -5338,25 +5469,23 @@
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="E98" s="4"/>
-      <c r="F98" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>126</v>
+      <c r="F98" s="4"/>
+      <c r="G98" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -5368,25 +5497,23 @@
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="4" t="s">
-        <v>121</v>
+      <c r="G99" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -5441,20 +5568,20 @@
         <v>16</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="F102" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>176</v>
+      <c r="F102" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -5466,23 +5593,25 @@
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E103" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="F103" s="4"/>
-      <c r="G103" s="9" t="s">
-        <v>183</v>
+      <c r="G103" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -5494,24 +5623,16 @@
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>274</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -5522,24 +5643,14 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A105" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>277</v>
-      </c>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -5550,9 +5661,9 @@
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
     </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>278</v>
@@ -5564,9 +5675,11 @@
         <v>280</v>
       </c>
       <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
+      <c r="F106" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="G106" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -5580,21 +5693,21 @@
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -5608,21 +5721,21 @@
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C108" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>286</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -5634,16 +5747,24 @@
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="G109" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
@@ -5654,14 +5775,24 @@
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="G110" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
@@ -5672,25 +5803,23 @@
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
     </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E111" s="4"/>
-      <c r="F111" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>126</v>
+      <c r="F111" s="4"/>
+      <c r="G111" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
@@ -5704,25 +5833,21 @@
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>121</v>
+        <v>297</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
@@ -5734,25 +5859,15 @@
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
     </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>299</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
@@ -5764,25 +5879,13 @@
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A114" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>301</v>
-      </c>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -5794,27 +5897,25 @@
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
     </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="G115" s="4" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
@@ -5828,24 +5929,26 @@
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G116" s="4"/>
+        <v>307</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
@@ -5858,22 +5961,22 @@
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D117" s="4" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -5888,33 +5991,27 @@
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>312</v>
+        <v>145</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>314</v>
+        <v>147</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>315</v>
+        <v>148</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
@@ -5922,16 +6019,28 @@
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -5942,217 +6051,259 @@
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="16" t="s">
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B121" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="E121" s="17"/>
-      <c r="F121" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E122" s="18" t="s">
+      <c r="B125" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="E125" s="27"/>
+      <c r="F125" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+      <c r="M125" s="27"/>
+      <c r="N125" s="27"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="27"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E126" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F122" s="18"/>
-      <c r="G122" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E123" s="18" t="s">
+      <c r="F126" s="28"/>
+      <c r="G126" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="28"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="28"/>
+      <c r="O126" s="28"/>
+      <c r="P126" s="28"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E127" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F123" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="18"/>
-      <c r="P123" s="18"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A124" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A125" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A126" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4" t="s">
+      <c r="F127" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="G126" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="17"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B129" s="4" t="s">
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="28"/>
+      <c r="M127" s="28"/>
+      <c r="N127" s="28"/>
+      <c r="O127" s="28"/>
+      <c r="P127" s="28"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A128" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="C128" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A129" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4" t="s">
-        <v>176</v>
+      <c r="F129" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
@@ -6164,20 +6315,28 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
     </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="C130" s="21"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="21"/>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A130" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -6186,72 +6345,42 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A131" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="H131" s="18"/>
-      <c r="I131" s="22"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="18"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="18"/>
-      <c r="P131" s="18"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A132" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="18"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="18"/>
-      <c r="P132" s="18"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="23" t="s">
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="27"/>
+      <c r="M131" s="27"/>
+      <c r="N131" s="27"/>
+      <c r="O131" s="27"/>
+      <c r="P131" s="27"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -6260,22 +6389,20 @@
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
     </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A134" s="20" t="s">
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A134" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B134" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="C134" s="21"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
+      <c r="B134" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -6284,82 +6411,72 @@
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
     </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A135" s="25" t="s">
-        <v>113</v>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A136" s="19" t="s">
-        <v>113</v>
+        <v>360</v>
+      </c>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="H135" s="28"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="28"/>
+      <c r="L135" s="28"/>
+      <c r="M135" s="28"/>
+      <c r="N135" s="28"/>
+      <c r="O135" s="28"/>
+      <c r="P135" s="28"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A136" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A137" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D137" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="28"/>
+      <c r="L136" s="28"/>
+      <c r="M136" s="28"/>
+      <c r="N136" s="28"/>
+      <c r="O136" s="28"/>
+      <c r="P136" s="28"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A137" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -6368,28 +6485,22 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
     </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A138" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B138" s="4" t="s">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A138" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -6399,24 +6510,22 @@
       <c r="P138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A139" s="19" t="s">
-        <v>113</v>
+      <c r="A139" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="E139" s="4"/>
-      <c r="F139" s="3" t="s">
-        <v>371</v>
-      </c>
+      <c r="F139" s="4"/>
       <c r="G139" s="4" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
@@ -6429,25 +6538,23 @@
       <c r="P139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A140" s="19" t="s">
-        <v>113</v>
+      <c r="A140" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="E140" s="4"/>
+      <c r="F140" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>183</v>
-      </c>
+      <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -6459,25 +6566,23 @@
       <c r="P140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A141" s="19" t="s">
-        <v>113</v>
+      <c r="A141" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D141" s="4" t="s">
-        <v>155</v>
+        <v>376</v>
       </c>
       <c r="E141" s="4"/>
-      <c r="F141" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>183</v>
-      </c>
+      <c r="F141" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -6489,8 +6594,8 @@
       <c r="P141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A142" s="19" t="s">
-        <v>113</v>
+      <c r="A142" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>377</v>
@@ -6499,14 +6604,14 @@
         <v>378</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>158</v>
+        <v>379</v>
       </c>
       <c r="E142" s="4"/>
-      <c r="F142" s="4" t="s">
-        <v>379</v>
+      <c r="F142" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
@@ -6519,24 +6624,24 @@
       <c r="P142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A143" s="19" t="s">
-        <v>113</v>
+      <c r="A143" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E143" s="4"/>
-      <c r="F143" s="4" t="s">
-        <v>382</v>
+      <c r="F143" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
@@ -6549,24 +6654,24 @@
       <c r="P143" s="4"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A144" s="19" t="s">
-        <v>113</v>
+      <c r="A144" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E144" s="4"/>
-      <c r="F144" s="4" t="s">
-        <v>385</v>
+      <c r="F144" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
@@ -6579,24 +6684,24 @@
       <c r="P144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A145" s="19" t="s">
-        <v>113</v>
+      <c r="A145" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>387</v>
+        <v>167</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E145" s="4"/>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="3" t="s">
         <v>388</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
@@ -6608,16 +6713,26 @@
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
     </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A146" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A146" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
+      <c r="F146" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -6628,24 +6743,28 @@
       <c r="O146" s="4"/>
       <c r="P146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A147" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="G147" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A147" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
@@ -6655,24 +6774,24 @@
       <c r="P147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A148" s="23" t="s">
-        <v>113</v>
+      <c r="A148" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>392</v>
+        <v>177</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>394</v>
+        <v>196</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -6684,25 +6803,25 @@
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A149" s="23" t="s">
-        <v>113</v>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A149" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="D149" s="26" t="s">
-        <v>397</v>
+        <v>398</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
@@ -6714,26 +6833,16 @@
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A150" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B150" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>204</v>
-      </c>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A150" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>183</v>
-      </c>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -6744,28 +6853,24 @@
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
     </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A151" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B151" s="27" t="s">
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A151" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E151" s="4"/>
-      <c r="F151" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="G151" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" s="31"/>
+      <c r="I151" s="31"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
@@ -6775,24 +6880,24 @@
       <c r="P151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A152" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B152" s="27" t="s">
+      <c r="A152" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>404</v>
       </c>
       <c r="E152" s="4"/>
-      <c r="F152" s="28" t="s">
+      <c r="F152" s="4" t="s">
         <v>405</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>183</v>
+        <v>406</v>
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
@@ -6804,25 +6909,25 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A153" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B153" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>213</v>
+    <row r="153" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A153" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C153" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="D153" s="36" t="s">
+        <v>409</v>
       </c>
       <c r="E153" s="4"/>
-      <c r="F153" s="28" t="s">
-        <v>407</v>
+      <c r="F153" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
@@ -6835,24 +6940,24 @@
       <c r="P153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A154" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D154" s="4" t="s">
+      <c r="A154" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B154" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>216</v>
       </c>
+      <c r="D154" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E154" s="4"/>
-      <c r="F154" s="28" t="s">
-        <v>410</v>
+      <c r="F154" s="38" t="s">
+        <v>412</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
@@ -6865,24 +6970,24 @@
       <c r="P154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A155" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B155" s="27" t="s">
-        <v>411</v>
+      <c r="A155" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B155" s="37" t="s">
+        <v>413</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E155" s="4"/>
-      <c r="F155" s="28" t="s">
-        <v>412</v>
+      <c r="F155" s="38" t="s">
+        <v>414</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -6895,24 +7000,24 @@
       <c r="P155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A156" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>413</v>
+      <c r="A156" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B156" s="37" t="s">
+        <v>415</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>222</v>
+        <v>416</v>
       </c>
       <c r="E156" s="4"/>
-      <c r="F156" s="28" t="s">
-        <v>414</v>
+      <c r="F156" s="38" t="s">
+        <v>417</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
@@ -6925,24 +7030,24 @@
       <c r="P156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A157" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B157" s="27" t="s">
-        <v>415</v>
+      <c r="A157" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B157" s="37" t="s">
+        <v>418</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E157" s="4"/>
-      <c r="F157" s="28" t="s">
-        <v>416</v>
+      <c r="F157" s="38" t="s">
+        <v>419</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
@@ -6955,24 +7060,24 @@
       <c r="P157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A158" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B158" s="27" t="s">
-        <v>417</v>
+      <c r="A158" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B158" s="37" t="s">
+        <v>420</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>227</v>
+        <v>421</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E158" s="4"/>
-      <c r="F158" s="28" t="s">
-        <v>418</v>
+      <c r="F158" s="38" t="s">
+        <v>422</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
@@ -6985,26 +7090,24 @@
       <c r="P158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A159" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B159" s="29" t="s">
-        <v>419</v>
+      <c r="A159" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B159" s="37" t="s">
+        <v>423</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>420</v>
+        <v>231</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F159" s="28" t="s">
-        <v>393</v>
+        <v>232</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="38" t="s">
+        <v>424</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
@@ -7017,25 +7120,25 @@
       <c r="P159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A160" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B160" s="27" t="s">
-        <v>422</v>
+      <c r="A160" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>425</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>423</v>
+        <v>234</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G160" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
@@ -7046,16 +7149,26 @@
       <c r="O160" s="4"/>
       <c r="P160" s="4"/>
     </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A161" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A161" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B161" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
+      <c r="F161" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
@@ -7066,22 +7179,28 @@
       <c r="O161" s="4"/>
       <c r="P161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A162" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="C162" s="21"/>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="21"/>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A162" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B162" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
@@ -7091,22 +7210,26 @@
       <c r="P162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A163" s="23" t="s">
+      <c r="A163" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B163" s="27" t="s">
-        <v>427</v>
+      <c r="B163" s="39" t="s">
+        <v>431</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
+        <v>433</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F163" s="38" t="s">
+        <v>405</v>
+      </c>
       <c r="G163" s="4" t="s">
-        <v>430</v>
+        <v>117</v>
       </c>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
@@ -7119,20 +7242,24 @@
       <c r="P163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A164" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>431</v>
+      <c r="A164" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B164" s="37" t="s">
+        <v>434</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
+        <v>436</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
@@ -7144,24 +7271,16 @@
       <c r="O164" s="4"/>
       <c r="P164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A165" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B165" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D165" s="30" t="s">
-        <v>436</v>
-      </c>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A165" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
-      <c r="G165" s="4" t="s">
-        <v>183</v>
-      </c>
+      <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -7172,26 +7291,22 @@
       <c r="O165" s="4"/>
       <c r="P165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A166" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B166" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="C166" s="4" t="s">
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A166" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="G166" s="31"/>
+      <c r="H166" s="31"/>
+      <c r="I166" s="31"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
@@ -7200,23 +7315,23 @@
       <c r="O166" s="4"/>
       <c r="P166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A167" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B167" s="27" t="s">
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A167" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B167" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="D167" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4" t="s">
-        <v>183</v>
+        <v>442</v>
       </c>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
@@ -7228,13 +7343,19 @@
       <c r="O167" s="4"/>
       <c r="P167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A168" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A168" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B168" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
@@ -7248,25 +7369,23 @@
       <c r="O168" s="4"/>
       <c r="P168" s="4"/>
     </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A169" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B169" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="D169" s="27" t="s">
-        <v>445</v>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A169" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B169" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D169" s="40" t="s">
+        <v>448</v>
       </c>
       <c r="E169" s="4"/>
-      <c r="F169" s="4" t="s">
-        <v>354</v>
-      </c>
+      <c r="F169" s="4"/>
       <c r="G169" s="4" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
@@ -7278,24 +7397,24 @@
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
     </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A170" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B170" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="C170" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="D170" s="27" t="s">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A170" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B170" s="37" t="s">
         <v>449</v>
       </c>
+      <c r="C170" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>451</v>
+      </c>
       <c r="E170" s="4"/>
-      <c r="F170" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="G170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
@@ -7306,24 +7425,24 @@
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
     </row>
-    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A171" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B171" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="C171" s="31" t="s">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A171" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B171" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="D171" s="27" t="s">
+      <c r="C171" s="4" t="s">
         <v>453</v>
       </c>
+      <c r="D171" s="4" t="s">
+        <v>454</v>
+      </c>
       <c r="E171" s="4"/>
-      <c r="F171" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="G171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
@@ -7334,23 +7453,15 @@
       <c r="O171" s="4"/>
       <c r="P171" s="4"/>
     </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A172" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B172" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="C172" s="31" t="s">
-        <v>456</v>
-      </c>
-      <c r="D172" s="27" t="s">
-        <v>457</v>
-      </c>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A172" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
       <c r="E172" s="4"/>
-      <c r="F172" s="4" t="s">
-        <v>458</v>
-      </c>
+      <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
@@ -7362,25 +7473,25 @@
       <c r="O172" s="4"/>
       <c r="P172" s="4"/>
     </row>
-    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A173" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B173" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="C173" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="D173" s="27" t="s">
-        <v>461</v>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A173" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B173" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D173" s="37" t="s">
+        <v>457</v>
       </c>
       <c r="E173" s="4"/>
       <c r="F173" s="4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
@@ -7392,59 +7503,186 @@
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
     </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A174" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B174" s="27" t="s">
+    <row r="174" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A174" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B174" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="C174" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="D174" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="F174" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="C174" s="31" t="s">
+      <c r="H174" s="0"/>
+    </row>
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A175" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B175" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="D174" s="27" t="s">
+      <c r="C175" s="42" t="s">
         <v>465</v>
       </c>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4" t="s">
+      <c r="D175" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
-      <c r="P174" s="4"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="28" t="s">
+      <c r="E175" s="4"/>
+      <c r="F175" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+    </row>
+    <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A176" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B176" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="C176" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="D176" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+    </row>
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A177" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B177" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="C177" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="D177" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+    </row>
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A178" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B178" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="C178" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="D178" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+    </row>
+    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A179" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B179" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="C179" s="42" t="s">
+        <v>481</v>
+      </c>
+      <c r="D179" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B175" s="28"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="28"/>
-      <c r="G175" s="28"/>
-      <c r="H175" s="28"/>
-      <c r="I175" s="28"/>
-      <c r="J175" s="28"/>
-      <c r="K175" s="28"/>
-      <c r="L175" s="28"/>
-      <c r="M175" s="28"/>
-      <c r="N175" s="28"/>
-      <c r="O175" s="28"/>
-      <c r="P175" s="28"/>
-    </row>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B180" s="38"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="38"/>
+      <c r="E180" s="38"/>
+      <c r="F180" s="38"/>
+      <c r="G180" s="38"/>
+      <c r="H180" s="38"/>
+      <c r="I180" s="38"/>
+      <c r="J180" s="38"/>
+      <c r="K180" s="38"/>
+      <c r="L180" s="38"/>
+      <c r="M180" s="38"/>
+      <c r="N180" s="38"/>
+      <c r="O180" s="38"/>
+      <c r="P180" s="38"/>
+    </row>
     <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7576,74 +7814,74 @@
       <formula>AND($A6="end group", $B6 = "", $D6 = "", $E6 = "", $F6 = "", $G10 = "", $H6 = "", $I6 = "", $K6 = "", $L6 = "", $M6 = "", $O6 = "", $P6 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131">
+  <conditionalFormatting sqref="G135">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A131="end repeat", $B131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $G131 = "", $K131 = "", $L131 = "", $M131 = "", $O131 = "", $P131 = "")</formula>
+      <formula>AND($A135="end repeat", $B135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $G135 = "", $K135 = "", $L135 = "", $M135 = "", $O135 = "", $P135 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131">
+  <conditionalFormatting sqref="G135">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A131="end group", $B131 = "", $D131 = "", $E131 = "", $F131 = "", $G131 = "", $H131 = "", $G131 = "", $K131 = "", $L131 = "", $M131 = "", $O131 = "", $P131 = "")</formula>
+      <formula>AND($A135="end group", $B135 = "", $D135 = "", $E135 = "", $F135 = "", $G135 = "", $H135 = "", $G135 = "", $K135 = "", $L135 = "", $M135 = "", $O135 = "", $P135 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131">
+  <conditionalFormatting sqref="G135">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND(NOT($H131 = ""), $G131 = "")</formula>
+      <formula>AND(NOT($H135 = ""), $G135 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G5 A121:P121 I132:I1085 P129:P1085 I129:I130 A1:F38 G9:G38 H1:P38 H129:H1085 A127:P127 A129:G1085 J129:O1085 A39:P119">
+  <conditionalFormatting sqref="G1:G5 A125:P125 P175:P1090 I133:I134 P39:P42 A131:P131 O175:O1090 A43:P123 A1:F34 A39:O42 G9:G34 H1:P34 A133:H173 A175:N1090 I136:I173 J133:P173">
     <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7">
       <formula>NOT(ISERROR(SEARCH("calculate",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G5 A121:P121 G9 I132:I1070 P129:P1070 I129:I130 A1:F38 G11:G38 H1:P38 H129:H1070 A127:P127 A129:G1070 J129:O1070 A39:P119">
+  <conditionalFormatting sqref="G1:G5 A125:P125 G9 P175:P1075 I133:I134 P39:P42 A131:P131 O175:O1075 A43:P123 A1:F34 A39:O42 G11:G34 H1:P34 A133:H173 A175:N1075 I136:I173 J133:P173">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G5 A121:P121 G9 G132:G1085 I132:I1085 G129:G130 P129:P1085 I129:I130 H129:H1085 A1:F38 G11:G38 H1:P38 F129:F1085 A127:P127 A129:E1085 J129:O1085 A39:P119">
+  <conditionalFormatting sqref="G1:G5 A125:P125 G9 G133:G134 P175:P1090 I133:I134 P39:P42 A131:P131 O175:O1090 A43:P123 A1:F34 A39:O42 G11:G34 H1:P34 A133:F173 A175:N1090 G136:G173 H133:H173 I136:I173 J133:P173">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND($A1="end group", $B1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G5 A121:P121 I132:I1085 P129:P1085 I129:I130 A1:F38 G9:G38 H1:P38 H129:H1085 A127:P127 A129:G1085 J129:O1085 A39:P119">
+  <conditionalFormatting sqref="G1:G5 A125:P125 P175:P1090 I133:I134 P39:P42 A131:P131 O175:O1090 A43:P123 A1:F34 A39:O42 G9:G34 H1:P34 A133:H173 A175:N1090 I136:I173 J133:P173">
     <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1079, "begin group") = COUNTIF($A$1:$A$1079, "end group"))</formula>
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1084, "begin group") = COUNTIF($A$1:$A$1084, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1070, "begin group") = COUNTIF($A$1:$A$1079, "end group")))</formula>
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1075, "begin group") = COUNTIF($A$1:$A$1084, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K129:K1085 K121 K1:K119 K127">
+  <conditionalFormatting sqref="K175:K1090 K125 K39:K123 K131 K1:K34 K133:K173">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>AND($K1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131:B132 E131:E132 E165:E167 E169 C129:C1085 C121:D121 C1:D119 D129:D168 D175:D1085 C127:D127">
+  <conditionalFormatting sqref="A135:B136 E135:E136 E169:E171 E173 C175:C1090 C125:D125 D39:D123 D133:D172 D180:D1090 C131:D131 C1:D34 C39:C123 C133:C173">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>AND(AND(NOT(#ref! = "end group"), NOT(#ref! = "end repeat"), NOT(#ref! = "")), #ref! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E131:E132 F138:F145 B121 B1:B119 D169:D174 B129:B1085 B127">
+  <conditionalFormatting sqref="E135:E136 F142:F149 B125 B39:B123 D175:D179 B175:B1090 B131 B1:B34 B133:B173 D173">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D131:D132 A129:A1085 A121 A1:A119 A127">
+  <conditionalFormatting sqref="D135:D136 A175:A1090 A125 A39:A123 A131 A1:A34 A133:A173">
     <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E131:E132 F138:F145 B121 B2:B119 D169:D174 B129:B1078 B127">
+  <conditionalFormatting sqref="E135:E136 F142:F149 B125 B39:B123 D175:D179 B175:B1083 B131 B2:B34 B133:B173 D173">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>COUNTIF($B$2:$B$1078,B2)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1083,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
@@ -7706,143 +7944,143 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I132:I1070 J129:J1070 I129:I130 I121:J121 I1:J119 I127:J127">
+  <conditionalFormatting sqref="I175:I1075 J175:J1075 I133:I134 I125:J125 J39:J123 I131:J131 I1:J34 I39:I123 I136:I173 J133:J173">
     <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>AND(NOT($H1 = ""), $I1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G5 A121:P121 G9 I132:I1070 P129:P1070 I129:I130 A1:F38 G11:G38 H1:P38 H129:H1070 A127:P127 A129:G1070 J129:O1070 A39:P119">
+  <conditionalFormatting sqref="G1:G5 A125:P125 G9 P175:P1075 I133:I134 P39:P42 A131:P131 O175:O1075 A43:P123 A1:F34 A39:O42 G11:G34 H1:P34 A133:H173 A175:N1075 I136:I173 J133:P173">
     <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G5 A121:P121 G9 G132:G1085 I132:I1085 G129:G130 P129:P1085 I129:I130 H129:H1085 A1:F38 G11:G38 H1:P38 F129:F1085 A127:P127 A129:E1085 J129:O1085 A39:P119">
+  <conditionalFormatting sqref="G1:G5 A125:P125 G9 G133:G134 P175:P1090 I133:I134 P39:P42 A131:P131 O175:O1090 A43:P123 A1:F34 A39:O42 G11:G34 H1:P34 A133:F173 A175:N1090 G136:G173 H133:H173 I136:I173 J133:P173">
     <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>AND($A1="end repeat", $B1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:P126">
+  <conditionalFormatting sqref="A128:P130">
     <cfRule type="containsText" priority="35" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="33">
-      <formula>NOT(ISERROR(SEARCH("calculate",A124)))</formula>
+      <formula>NOT(ISERROR(SEARCH("calculate",A128)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:P126">
+  <conditionalFormatting sqref="A128:P130">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND($A124="begin group", NOT($B124 = ""))</formula>
+      <formula>AND($A128="begin group", NOT($B128 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:P126">
+  <conditionalFormatting sqref="A128:P130">
     <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
-      <formula>AND($A124="end group", $B124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $K124 = "", $L124 = "", $M124 = "", $O124 = "", $P124 = "")</formula>
+      <formula>AND($A128="end group", $B128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $K128 = "", $L128 = "", $M128 = "", $O128 = "", $P128 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:P126">
+  <conditionalFormatting sqref="A128:P130">
     <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K124:K126">
+  <conditionalFormatting sqref="K128:K130">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($K124 = "", $A124 = "calculate")</formula>
+      <formula>AND($K128 = "", $A128 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124:D126">
+  <conditionalFormatting sqref="C128:D130">
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
       <formula>AND(AND(NOT(#ref! = "end group"), NOT(#ref! = "end repeat"), NOT(#ref! = "")), #ref! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B126">
+  <conditionalFormatting sqref="B128:B130">
     <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND(AND(NOT($A124 = "end group"), NOT($A124 = "end repeat"), NOT($A124 = "")), $B124 = "")</formula>
+      <formula>AND(AND(NOT($A128 = "end group"), NOT($A128 = "end repeat"), NOT($A128 = "")), $B128 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A126">
+  <conditionalFormatting sqref="A128:A130">
     <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B126">
+  <conditionalFormatting sqref="B128:B130">
     <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>COUNTIF($B$2:$B$1078,B124)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1083,B128)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I124:J126">
+  <conditionalFormatting sqref="I128:J130">
     <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND(NOT($H124 = ""), $I124 = "")</formula>
+      <formula>AND(NOT($H128 = ""), $I128 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:P126">
+  <conditionalFormatting sqref="A128:P130">
     <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>AND($A124="begin repeat", NOT($B124 = ""))</formula>
+      <formula>AND($A128="begin repeat", NOT($B128 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:P126">
+  <conditionalFormatting sqref="A128:P130">
     <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>AND($A124="end repeat", $B124 = "", $D124 = "", $E124 = "", $F124 = "", $G124 = "", $H124 = "", $I124 = "", $K124 = "", $L124 = "", $M124 = "", $O124 = "", $P124 = "")</formula>
+      <formula>AND($A128="end repeat", $B128 = "", $D128 = "", $E128 = "", $F128 = "", $G128 = "", $H128 = "", $I128 = "", $K128 = "", $L128 = "", $M128 = "", $O128 = "", $P128 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:P123">
+  <conditionalFormatting sqref="A126:P127">
     <cfRule type="containsText" priority="47" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="45">
-      <formula>NOT(ISERROR(SEARCH("calculate",A122)))</formula>
+      <formula>NOT(ISERROR(SEARCH("calculate",A126)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:P123">
+  <conditionalFormatting sqref="A126:P127">
     <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
-      <formula>AND($A122="begin group", NOT($B122 = ""))</formula>
+      <formula>AND($A126="begin group", NOT($B126 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:P123">
+  <conditionalFormatting sqref="A126:P127">
     <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>AND($A122="end group", $B122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $K122 = "", $L122 = "", $M122 = "", $O122 = "", $P122 = "")</formula>
+      <formula>AND($A126="end group", $B126 = "", $D126 = "", $E126 = "", $F126 = "", $G126 = "", $H126 = "", $I126 = "", $K126 = "", $L126 = "", $M126 = "", $O126 = "", $P126 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:P123">
+  <conditionalFormatting sqref="A126:P127">
     <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K122:K123">
+  <conditionalFormatting sqref="K126:K127">
     <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>AND($K122 = "", $A122 = "calculate")</formula>
+      <formula>AND($K126 = "", $A126 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122:D123">
+  <conditionalFormatting sqref="C126:D127">
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
       <formula>AND(AND(NOT(#ref! = "end group"), NOT(#ref! = "end repeat"), NOT(#ref! = "")), #ref! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B122:B123">
+  <conditionalFormatting sqref="B126:B127">
     <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
-      <formula>AND(AND(NOT($A122 = "end group"), NOT($A122 = "end repeat"), NOT($A122 = "")), $B122 = "")</formula>
+      <formula>AND(AND(NOT($A126 = "end group"), NOT($A126 = "end repeat"), NOT($A126 = "")), $B126 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:A123">
+  <conditionalFormatting sqref="A126:A127">
     <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B122:B123">
+  <conditionalFormatting sqref="B126:B127">
     <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
-      <formula>COUNTIF($B$2:$B$1078,B122)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1083,B126)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I122:J123">
+  <conditionalFormatting sqref="I126:J127">
     <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
-      <formula>AND(NOT($H122 = ""), $I122 = "")</formula>
+      <formula>AND(NOT($H126 = ""), $I126 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:P123">
+  <conditionalFormatting sqref="A126:P127">
     <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
-      <formula>AND($A122="begin repeat", NOT($B122 = ""))</formula>
+      <formula>AND($A126="begin repeat", NOT($B126 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:P123">
+  <conditionalFormatting sqref="A126:P127">
     <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
-      <formula>AND($A122="end repeat", $B122 = "", $D122 = "", $E122 = "", $F122 = "", $G122 = "", $H122 = "", $I122 = "", $K122 = "", $L122 = "", $M122 = "", $O122 = "", $P122 = "")</formula>
+      <formula>AND($A126="end repeat", $B126 = "", $D126 = "", $E126 = "", $F126 = "", $G126 = "", $H126 = "", $I126 = "", $K126 = "", $L126 = "", $M126 = "", $O126 = "", $P126 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E119 E121:E127 E129:E168 D165:D167 E169:E175" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E34 E39:E123 E125:E131 E133:E172 D169:D171 E173 E175:E180" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7870,7 +8108,7 @@
       <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.9"/>
@@ -7878,34 +8116,34 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -7913,16 +8151,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -7939,16 +8177,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -7956,16 +8194,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -7973,16 +8211,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -7990,16 +8228,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -8016,16 +8254,16 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>490</v>
+        <v>505</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>507</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -8033,16 +8271,16 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -8059,16 +8297,16 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>477</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -8076,16 +8314,16 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -8093,16 +8331,16 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -8110,16 +8348,16 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -8136,16 +8374,16 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -8153,16 +8391,16 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -8170,16 +8408,16 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -8187,16 +8425,16 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -8204,16 +8442,16 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -8221,16 +8459,16 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -8238,16 +8476,16 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -8255,16 +8493,16 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>484</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -8272,16 +8510,16 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -8289,16 +8527,16 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -8306,16 +8544,16 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -8323,16 +8561,16 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -8372,55 +8610,55 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="22.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
-        <v>534</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>535</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>536</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>537</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>539</v>
+      <c r="A1" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="36" t="n">
+      <c r="A2" s="46" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="C2" s="47" t="n">
         <f aca="true">NOW()</f>
-        <v>44861.5773751377</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>542</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="F2" s="35"/>
+        <v>45009.7340679087</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>560</v>
+      </c>
+      <c r="F2" s="46"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/forms/app/postnatal_followup.xlsx
+++ b/forms/app/postnatal_followup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="561">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -375,7 +375,7 @@
     <t xml:space="preserve">La femme est-elle disponible?</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -1718,7 +1718,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1802,12 +1802,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2062,7 +2056,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2074,15 +2068,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2090,23 +2084,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2118,7 +2112,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2138,19 +2132,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2786,16 +2780,16 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A105" activeCellId="0" sqref="A105"/>
-      <selection pane="bottomRight" activeCell="F125" activeCellId="0" sqref="F125"/>
+      <selection pane="bottomLeft" activeCell="A112" activeCellId="0" sqref="A112"/>
+      <selection pane="bottomRight" activeCell="C140" activeCellId="0" sqref="C140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.18"/>
@@ -6372,8 +6366,12 @@
       <c r="B133" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="C133" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4" t="s">
@@ -6396,8 +6394,12 @@
       <c r="B134" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
+      <c r="C134" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>72</v>
+      </c>
       <c r="E134" s="31"/>
       <c r="F134" s="31"/>
       <c r="G134" s="31"/>
@@ -6485,15 +6487,19 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
     </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B138" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
+      <c r="C138" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>72</v>
+      </c>
       <c r="E138" s="31"/>
       <c r="F138" s="13" t="s">
         <v>366</v>
@@ -6853,15 +6859,19 @@
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
     </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A151" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B151" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
+      <c r="C151" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>72</v>
+      </c>
       <c r="E151" s="31"/>
       <c r="F151" s="13" t="s">
         <v>366</v>
@@ -7298,8 +7308,12 @@
       <c r="B166" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
+      <c r="C166" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D166" s="31" t="s">
+        <v>72</v>
+      </c>
       <c r="E166" s="31"/>
       <c r="F166" s="31" t="s">
         <v>366</v>
@@ -8108,7 +8122,7 @@
       <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.9"/>
@@ -8616,7 +8630,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="22.14"/>
   </cols>
@@ -8650,7 +8664,7 @@
       </c>
       <c r="C2" s="47" t="n">
         <f aca="true">NOW()</f>
-        <v>45009.7340679087</v>
+        <v>45485.4739541416</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>559</v>
